--- a/xlsx/rq1.xlsx
+++ b/xlsx/rq1.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LOCAL\MuTChatbots\paper\temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34F1AB2-7033-4081-AAB7-A8D2C995171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41772B8A-61C0-4C95-8EE1-3ADCD9553947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA1B09E1-C9F8-4D0C-8D24-C650A315F62B}"/>
   </bookViews>
@@ -686,9 +681,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -726,7 +721,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -832,7 +827,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -974,7 +969,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2129,6 +2124,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="U2" formulaRange="1"/>
   </ignoredErrors>

--- a/xlsx/rq1.xlsx
+++ b/xlsx/rq1.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41772B8A-61C0-4C95-8EE1-3ADCD9553947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C8A1FD-8828-4847-B362-55810B5C907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA1B09E1-C9F8-4D0C-8D24-C650A315F62B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA1B09E1-C9F8-4D0C-8D24-C650A315F62B}"/>
   </bookViews>
   <sheets>
-    <sheet name="todos" sheetId="1" r:id="rId1"/>
-    <sheet name="usados en tabla 3" sheetId="2" r:id="rId2"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="used in table 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -979,9 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155261E7-EBBA-4B8C-953D-8653F4045B51}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:XFD17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
